--- a/PTBR/Lang/PTBR/Game/KeyItem.xlsx
+++ b/PTBR/Lang/PTBR/Game/KeyItem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E80918-8BD9-4648-BB16-441759FDF9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38777EFD-86D2-407C-9865-73C0042DDC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1605" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KeyItem" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -296,6 +296,27 @@
     <t>Saliva contendo o poder mágico de uma forte bênção.
 [Efeito Passivo]
 Aumenta o poder dos desejos feitos em poços.</t>
+  </si>
+  <si>
+    <t>EA 23.131</t>
+  </si>
+  <si>
+    <t>Bracelet of Forgiveness</t>
+  </si>
+  <si>
+    <t>赦しの腕輪</t>
+  </si>
+  <si>
+    <t>A tattered bracelet woven from withered vines.</t>
+  </si>
+  <si>
+    <t>枯れた蔦で編まれたボロボロの腕輪だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bracelete do Perdão  </t>
+  </si>
+  <si>
+    <t>Um bracelete esfarrapado tecido com vinhas ressecadas.</t>
   </si>
 </sst>
 </file>
@@ -676,18 +697,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="7" width="170.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
@@ -1004,6 +1026,32 @@
         <v>62</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>550</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR/Lang/PTBR/Game/KeyItem.xlsx
+++ b/PTBR/Lang/PTBR/Game/KeyItem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SteamLibrary\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38777EFD-86D2-407C-9865-73C0042DDC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C6D109-5970-427D-93E4-387E110570A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1605" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="2070" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KeyItem" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
   <si>
     <t>id</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>Um bracelete esfarrapado tecido com vinhas ressecadas.</t>
+  </si>
+  <si>
+    <t>550</t>
   </si>
 </sst>
 </file>
@@ -699,9 +702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,8 +1030,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>550</v>
+      <c r="A14" t="s">
+        <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>89</v>

--- a/PTBR/Lang/PTBR/Game/KeyItem.xlsx
+++ b/PTBR/Lang/PTBR/Game/KeyItem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SteamLibrary\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C6D109-5970-427D-93E4-387E110570A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA712678-6EC6-4B42-82B6-083F55EE87A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="2070" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1440" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KeyItem" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -320,13 +320,43 @@
   </si>
   <si>
     <t>550</t>
+  </si>
+  <si>
+    <t>EA 23.207</t>
+  </si>
+  <si>
+    <t>Bubbling Mysterious Vial</t>
+  </si>
+  <si>
+    <t>泡立つ謎の瓶</t>
+  </si>
+  <si>
+    <t>A vial filled with a bubbling, clear liquid. It reeks of corruption.</t>
+  </si>
+  <si>
+    <t>泡立つ透明な液体が入った瓶だ。とても穢れた匂いがする。</t>
+  </si>
+  <si>
+    <t>A vial filled with a bubbling, clear liquid. It smells like detergent.</t>
+  </si>
+  <si>
+    <t>泡立つ透明な液体が入った瓶だ。洗剤の匂いがする。</t>
+  </si>
+  <si>
+    <t>Frasco Misterioso Borbulhante</t>
+  </si>
+  <si>
+    <t>Um frasco cheio de um líquido transparente borbulhante. Fede a corrupção.</t>
+  </si>
+  <si>
+    <t>Um frasco cheio de um líquido transparente borbulhante. Cheira a detergente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -700,24 +730,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="170.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="170.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -769,7 +799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -795,7 +825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -821,7 +851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="57">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -847,216 +877,272 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>552</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>553</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H14">
+      <sortCondition ref="B2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PTBR/Lang/PTBR/Game/KeyItem.xlsx
+++ b/PTBR/Lang/PTBR/Game/KeyItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA712678-6EC6-4B42-82B6-083F55EE87A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F6C4A4-5E0E-4F31-901B-9385E9BA3F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1440" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KeyItem" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>Um frasco cheio de um líquido transparente borbulhante. Cheira a detergente.</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>553</t>
   </si>
 </sst>
 </file>
@@ -732,9 +738,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1086,8 +1092,8 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15">
-        <v>552</v>
+      <c r="A15" t="s">
+        <v>107</v>
       </c>
       <c r="B15" t="s">
         <v>97</v>
@@ -1112,8 +1118,8 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16">
-        <v>553</v>
+      <c r="A16" t="s">
+        <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>97</v>

--- a/PTBR/Lang/PTBR/Game/KeyItem.xlsx
+++ b/PTBR/Lang/PTBR/Game/KeyItem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F6C4A4-5E0E-4F31-901B-9385E9BA3F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734A608B-3677-4694-A752-A0C97E0D2DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KeyItem" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -740,20 +740,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="170.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="170.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -779,189 +779,189 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F6" t="s">
         <v>78</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>69</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>80</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="57">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -987,166 +987,166 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>77</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E14" t="s">
         <v>60</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F14" t="s">
         <v>87</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G14" t="s">
         <v>61</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>81</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>31</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" t="s">
-        <v>106</v>
+        <v>25</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H14">
-      <sortCondition ref="B2"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H16">
+      <sortCondition ref="C2"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR/Lang/PTBR/Game/KeyItem.xlsx
+++ b/PTBR/Lang/PTBR/Game/KeyItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734A608B-3677-4694-A752-A0C97E0D2DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B98ED9F-FEC8-4D98-B840-BB17BDEBB4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KeyItem" sheetId="1" r:id="rId1"/>
@@ -313,9 +313,6 @@
     <t>枯れた蔦で編まれたボロボロの腕輪だ。</t>
   </si>
   <si>
-    <t xml:space="preserve">Bracelete do Perdão  </t>
-  </si>
-  <si>
     <t>Um bracelete esfarrapado tecido com vinhas ressecadas.</t>
   </si>
   <si>
@@ -356,6 +353,9 @@
   </si>
   <si>
     <t>553</t>
+  </si>
+  <si>
+    <t>Bracelete do Perdão</t>
   </si>
 </sst>
 </file>
@@ -740,7 +740,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,13 +781,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
         <v>90</v>
@@ -796,7 +796,7 @@
         <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
         <v>92</v>
@@ -911,54 +911,54 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
         <v>104</v>
       </c>
-      <c r="D8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>99</v>
       </c>
-      <c r="F8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>100</v>
-      </c>
-      <c r="H8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
         <v>97</v>
       </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>98</v>
       </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" t="s">
         <v>102</v>
-      </c>
-      <c r="H9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
